--- a/演習プログラム仕様概要.xlsx
+++ b/演習プログラム仕様概要.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicomputer.sharepoint.com/sites/msteams_8516dd_471900-group-E30_2/Shared Documents/group-E30_新人研修チャネル/s_スクラム研修/Ex_Architecture_PG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\i1968\work\uccScrumTraining\ApFsn_SWC_Rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_BB04F90CCD5A5823710C5173AB51975A2C7301F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D14539-0A09-4160-8ABE-E7AA967E1E26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17590240-96E4-42A4-BF95-067DD1564908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11475" yWindow="-16080" windowWidth="17280" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_全体" sheetId="1" r:id="rId1"/>
@@ -854,10 +854,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>main()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジューラ処理</t>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
@@ -1422,6 +1418,10 @@
     <rPh sb="33" eb="34">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main_schedule()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1429,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,6 +1481,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1933,7 +1941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1997,6 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6172,7 +6181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6909,9 +6918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CB741E-A341-4D7B-9C27-63384A03763B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6957,20 +6964,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6978,46 +6985,46 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
         <v>109</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
       <c r="B11" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -7039,48 +7046,48 @@
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="42"/>
     </row>
@@ -7097,37 +7104,37 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -7162,7 +7169,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -7191,16 +7198,16 @@
         <v>44</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>49</v>
@@ -7214,10 +7221,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="5"/>
@@ -7258,7 +7265,7 @@
     </row>
     <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="17"/>
       <c r="D6" s="31"/>
@@ -7279,10 +7286,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>66</v>
@@ -7291,16 +7298,16 @@
         <v>67</v>
       </c>
       <c r="F7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>49</v>
@@ -7314,10 +7321,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="5"/>
@@ -7358,10 +7365,10 @@
     </row>
     <row r="10" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
@@ -7399,46 +7406,46 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7471,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -7488,7 +7495,7 @@
       </c>
       <c r="G2" s="43"/>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -7502,48 +7509,48 @@
         <v>43</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>143</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="K3" s="52" t="s">
         <v>145</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>150</v>
       </c>
       <c r="K4" s="52"/>
     </row>
@@ -7555,15 +7562,15 @@
         <v>56</v>
       </c>
       <c r="I5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="17"/>
       <c r="D6" s="31"/>
@@ -7574,35 +7581,35 @@
         <v>56</v>
       </c>
       <c r="I6" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>153</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>154</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -7625,7 +7632,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>28</v>
@@ -7633,44 +7640,44 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="47"/>
       <c r="B23" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7706,7 +7713,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -7723,7 +7730,7 @@
       </c>
       <c r="G2" s="43"/>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -7737,31 +7744,31 @@
         <v>43</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="5"/>
@@ -7771,7 +7778,7 @@
         <v>56</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>64</v>
@@ -7791,33 +7798,33 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="17"/>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -7840,7 +7847,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>35</v>
@@ -7848,32 +7855,32 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -7883,21 +7890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008663B2E4F281F14C85355D2F031ED094" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1d8a721b52cc4df8dc3590e994e8838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c77cafcc-91f2-45f1-a041-8245d2593f87" xmlns:ns3="91594274-973f-42d9-9101-2bb8706936f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="695a03f0968d84d1c452d42fe4c897aa" ns2:_="" ns3:_="">
     <xsd:import namespace="c77cafcc-91f2-45f1-a041-8245d2593f87"/>
@@ -8094,32 +8086,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C606CC85-3632-4681-B56D-6BF5ED916082}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="91594274-973f-42d9-9101-2bb8706936f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c77cafcc-91f2-45f1-a041-8245d2593f87"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB29110B-170E-4C05-BE44-712500CD4B34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7ABEA5-88D2-413C-80FC-D6D2B01E0911}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8136,4 +8118,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB29110B-170E-4C05-BE44-712500CD4B34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C606CC85-3632-4681-B56D-6BF5ED916082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="91594274-973f-42d9-9101-2bb8706936f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c77cafcc-91f2-45f1-a041-8245d2593f87"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>